--- a/sssom-mappings/tables/vs_sssom.xlsx
+++ b/sssom-mappings/tables/vs_sssom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/sssom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/sssom-mappings/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF97ED4-7B2A-244F-9C6B-AD7CF5D458B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2205EC22-56AB-C54B-8D30-AFFE35A78DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23900" windowHeight="21440" xr2:uid="{A7ED2088-67B6-4343-9C05-083258E1C6E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23900" windowHeight="18700" xr2:uid="{A7ED2088-67B6-4343-9C05-083258E1C6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="vital_status" sheetId="1" r:id="rId1"/>
@@ -483,10 +483,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC00C341-3441-564B-9FDB-F31C8C2D6810}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="158" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,19 +633,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
@@ -659,19 +659,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
